--- a/Top10.xlsx
+++ b/Top10.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jasmine\Documents\NSS\Projects\app-trader-fantastic-five\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{275F230E-1190-4DCF-B183-01B66F9AD5A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE95D72A-CBB7-46FA-AC19-D73AF5A64D0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29730" yWindow="1710" windowWidth="24315" windowHeight="12345" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Top10_ls" sheetId="1" r:id="rId1"/>
@@ -22,18 +22,30 @@
     <sheet name="Top10_ag" sheetId="8" r:id="rId7"/>
     <sheet name="Top10_ag_chart" sheetId="10" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId9"/>
     <pivotCache cacheId="1" r:id="rId10"/>
     <pivotCache cacheId="2" r:id="rId11"/>
-    <pivotCache cacheId="21" r:id="rId12"/>
+    <pivotCache cacheId="3" r:id="rId12"/>
   </pivotCaches>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="52">
   <si>
     <t>app</t>
   </si>
@@ -125,12 +137,6 @@
     <t>Row Labels</t>
   </si>
   <si>
-    <t>Sum of estimated_spending</t>
-  </si>
-  <si>
-    <t>Sum of estimated_revenue</t>
-  </si>
-  <si>
     <t>Sum of lifespan_years</t>
   </si>
   <si>
@@ -142,13 +148,69 @@
   <si>
     <t>Count of app_store_genre</t>
   </si>
+  <si>
+    <t>Percent of Total Spending</t>
+  </si>
+  <si>
+    <t>Spending Amount</t>
+  </si>
+  <si>
+    <t>Sum of total_revenue</t>
+  </si>
+  <si>
+    <t>Revenue Amount</t>
+  </si>
+  <si>
+    <t>Percent of Total Revenue</t>
+  </si>
+  <si>
+    <t>Apps spending $142,000 in marketing</t>
+  </si>
+  <si>
+    <t>Apps spending $130,000 in marketing</t>
+  </si>
+  <si>
+    <t>Apps earning $660,000</t>
+  </si>
+  <si>
+    <t>Apps earning $600,000</t>
+  </si>
+  <si>
+    <t>Profit Amount</t>
+  </si>
+  <si>
+    <t>Percent of Total Profit</t>
+  </si>
+  <si>
+    <t>Apps with $538,000 profit</t>
+  </si>
+  <si>
+    <t>Apps with $490,000 profit</t>
+  </si>
+  <si>
+    <t>Percent of Lifespan Years</t>
+  </si>
+  <si>
+    <t>11 years</t>
+  </si>
+  <si>
+    <t>10 years</t>
+  </si>
+  <si>
+    <t>Lifespan</t>
+  </si>
+  <si>
+    <t>should be 4,844,000 based on subtracting above totals</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="3">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="173" formatCode="0.0"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -583,7 +645,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="43">
+  <cellStyleXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -627,8 +689,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -637,8 +700,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="42" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="43" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="43" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="43">
+  <cellStyles count="44">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -666,6 +734,7 @@
     <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Currency" xfId="43" builtinId="4"/>
     <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
@@ -683,7 +752,28 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="8">
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="173" formatCode="0.0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
@@ -978,7 +1068,7 @@
             <c:numRef>
               <c:f>Top10_ls_chart!$B$4:$B$13</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>10.8</c:v>
@@ -1087,7 +1177,7 @@
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="l"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1163,6 +1253,387 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" b="1">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Top 10 Apps - Lifespan</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" b="1" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> Breakdown</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.22521680883639542"/>
+          <c:y val="7.407407407407407E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Top10_ls_chart!$E$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Percent of Lifespan Years</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-94C1-4F5C-B0DA-42290910B56B}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-94C1-4F5C-B0DA-42290910B56B}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.12908177493438319"/>
+                  <c:y val="9.2720180810731953E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-94C1-4F5C-B0DA-42290910B56B}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.13689208770778652"/>
+                  <c:y val="-9.6175269757946921E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-94C1-4F5C-B0DA-42290910B56B}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="bestFit"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Top10_ls_chart!$D$4:$D$5</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>11 years</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10 years</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Top10_ls_chart!$E$4:$E$5</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-94C1-4F5C-B0DA-42290910B56B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="bestFit"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.13920767716535432"/>
+          <c:y val="0.84489100320793231"/>
+          <c:w val="0.45075131233595805"/>
+          <c:h val="9.4923811606882472E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId3"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1619,7 +2090,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1637,6 +2108,36 @@
     <c:fmtId val="1"/>
   </c:pivotSource>
   <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:pivotFmts>
       <c:pivotFmt>
@@ -2031,6 +2532,790 @@
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="7"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="8"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="9"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="10"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="11"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="12"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="13"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="14"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="15"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="16"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="17"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="18"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="19"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="20"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
       <c:layout/>
@@ -2047,14 +3332,14 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Sum of estimated_spending</c:v>
+                  <c:v>Total</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="C00000"/>
+              <a:schemeClr val="accent1"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -2071,31 +3356,31 @@
                   <c:v>Animal Jam - Play Wild!</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Pinterest</c:v>
+                  <c:v>Cooking Fever</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Farm Heroes Saga</c:v>
+                  <c:v>Domino's Pizza USA</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>DoorDash - Food Delivery</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>Egg, Inc.</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Farm Heroes Saga</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>Fruit Ninja</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>Cooking Fever</c:v>
-                </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>PAC-MAN Pop</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Egg, Inc.</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>PewDiePie's Tuber Simulator</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>Domino's Pizza USA</c:v>
+                  <c:v>Pinterest</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2107,148 +3392,41 @@
                 <c:formatCode>_("$"* #,##0_);_("$"* \(#,##0\);_("$"* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>130000</c:v>
+                  <c:v>490000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>130000</c:v>
+                  <c:v>490000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>130000</c:v>
+                  <c:v>538000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>130000</c:v>
+                  <c:v>490000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>130000</c:v>
+                  <c:v>538000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>130000</c:v>
+                  <c:v>490000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>130000</c:v>
+                  <c:v>490000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>142000</c:v>
+                  <c:v>490000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>142000</c:v>
+                  <c:v>538000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>142000</c:v>
+                  <c:v>490000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0B64-45FC-9795-6E5D25AF58B3}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Top10_s_chart!$C$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Sum of estimated_revenue</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent6"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Top10_s_chart!$A$4:$A$13</c:f>
-              <c:strCache>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>Animal Jam - Play Wild!</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Pinterest</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Farm Heroes Saga</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>DoorDash - Food Delivery</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Fruit Ninja</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Cooking Fever</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>PAC-MAN Pop</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Egg, Inc.</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>PewDiePie's Tuber Simulator</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Domino's Pizza USA</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Top10_s_chart!$C$4:$C$13</c:f>
-              <c:numCache>
-                <c:formatCode>_("$"* #,##0_);_("$"* \(#,##0\);_("$"* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>600000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>600000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>600000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>600000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>600000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>600000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>600000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>660000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>660000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>660000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-0B64-45FC-9795-6E5D25AF58B3}"/>
+              <c16:uniqueId val="{0000000E-3034-4BF0-BB28-7FDCB6E1DA15}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2468,7 +3646,1098 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1200" b="1">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Top 10 Apps - Estimated Total Spending</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1200" b="1" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> Breakdown</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1200" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.7031256393618953E-2"/>
+          <c:y val="6.7911702665810605E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Top10_s_chart!$E$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Percent of Total Spending</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </c:spPr>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000004-6506-4086-B9E5-4D4CFECA4140}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-6506-4086-B9E5-4D4CFECA4140}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.12522156605424328"/>
+                  <c:y val="-9.5788130650335368E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-6506-4086-B9E5-4D4CFECA4140}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="bestFit"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Top10_s_chart!$D$4:$D$5</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v> Apps spending $142,000 in marketing </c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v> Apps spending $130,000 in marketing </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Top10_s_chart!$E$4:$E$5</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6506-4086-B9E5-4D4CFECA4140}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="bestFit"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.6048986284523556E-2"/>
+          <c:y val="0.7618377584075936"/>
+          <c:w val="0.60076016110458352"/>
+          <c:h val="0.17886623462227724"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId3"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1200" b="1">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Top 10 Apps - Estimated Total Earnings</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1200" b="1" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> Breakdown</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1200" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.12893118180855195"/>
+          <c:y val="7.6706134145847524E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Top10_s_chart!$E$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Percent of Total Revenue</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000004-D0F5-4486-9BA4-783D08C1B05D}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-D0F5-4486-9BA4-783D08C1B05D}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.13728505349387379"/>
+                  <c:y val="-9.5914643375098321E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-D0F5-4486-9BA4-783D08C1B05D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="bestFit"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Top10_s_chart!$D$9:$D$10</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Apps earning $660,000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Apps earning $600,000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Top10_s_chart!$E$9:$E$10</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D0F5-4486-9BA4-783D08C1B05D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.12330590963125125"/>
+          <c:y val="0.87590055985885218"/>
+          <c:w val="0.87669409036874879"/>
+          <c:h val="9.2514561375210594E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId3"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1200" b="1">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Top 10 Apps -</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1200" b="1" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> Estimated Total Profit Breakdown</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1200" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.17134517378152844"/>
+          <c:y val="8.5730385221829589E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Top10_s_chart!$E$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Percent of Total Profit</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </c:spPr>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-F6FE-4AF4-8C0C-5077EB2F5C30}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-F6FE-4AF4-8C0C-5077EB2F5C30}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.14161752762967408"/>
+                  <c:y val="-9.6713325123870278E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-F6FE-4AF4-8C0C-5077EB2F5C30}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="bestFit"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Top10_s_chart!$D$13:$D$14</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Apps with $538,000 profit</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Apps with $490,000 profit</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Top10_s_chart!$E$13:$E$14</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F6FE-4AF4-8C0C-5077EB2F5C30}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.5978955545355036E-2"/>
+          <c:y val="0.89037489012796667"/>
+          <c:w val="0.90000000000000013"/>
+          <c:h val="8.7064482182078115E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId3"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3014,6 +5283,166 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -3518,7 +5947,7 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -3575,7 +6004,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -3626,6 +6055,13 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -3636,12 +6072,19 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
@@ -3679,7 +6122,7 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
@@ -3722,22 +6165,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -3842,8 +6286,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -3975,19 +6419,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -4021,7 +6466,7 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -4225,6 +6670,509 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
@@ -4525,7 +7473,1564 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5082,10 +9587,112 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA8A34C7-2EA6-4C68-B8AF-F7A5AAE8F6F0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.625</cdr:x>
+      <cdr:y>0.80035</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.96354</cdr:x>
+      <cdr:y>0.96875</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9174E189-0010-4D96-A5BD-D73F2ED1576E}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="2286000" y="2195513"/>
+          <a:ext cx="1238250" cy="461962"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Total Lifespan:</a:t>
+          </a:r>
+        </a:p>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>103 years</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -5126,20 +9733,20 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>4762</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>33337</xdr:rowOff>
+      <xdr:colOff>23812</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5164,23 +9771,362 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>33336</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1F44BD4-E1E5-46DA-860E-6552FCB26093}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>185738</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3BFBE4F-6DCD-4F78-B486-83B1CB79D6CD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Chart 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A82F6C0-4054-4367-B424-6E385FAD567C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.4</cdr:x>
+      <cdr:y>0.33646</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.6</cdr:x>
+      <cdr:y>0.66354</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E7FB556-9078-491D-8692-FCE8539D6B60}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="1828800" y="940594"/>
+          <a:ext cx="914400" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.71584</cdr:x>
+      <cdr:y>0.7691</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.95445</cdr:x>
+      <cdr:y>0.96265</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="5" name="TextBox 4">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E196555-F980-47BB-B195-56CA204D5D57}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="3143251" y="2157414"/>
+          <a:ext cx="1047750" cy="542923"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Total Spending:</a:t>
+          </a:r>
+        </a:p>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>$1,336,000</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.70179</cdr:x>
+      <cdr:y>0.68866</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.97085</cdr:x>
+      <cdr:y>0.86464</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B666354-E699-449A-8102-DA4BDE0B0A5D}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="2981325" y="1938338"/>
+          <a:ext cx="1143000" cy="495300"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Total Earnings:</a:t>
+          </a:r>
+        </a:p>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>$6,180,000</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.69283</cdr:x>
+      <cdr:y>0.69205</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.99103</cdr:x>
+      <cdr:y>0.85448</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A130E405-4C13-4D2C-8A6B-B6FF01805442}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="2943226" y="1947862"/>
+          <a:ext cx="1266824" cy="457201"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Total Profit:</a:t>
+          </a:r>
+        </a:p>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>$5,044,000</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>4762</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6061,8 +11007,13 @@
     <i/>
   </colItems>
   <dataFields count="1">
-    <dataField name="Sum of lifespan_years" fld="7" baseField="0" baseItem="0"/>
+    <dataField name="Sum of lifespan_years" fld="7" baseField="0" baseItem="0" numFmtId="173"/>
   </dataFields>
+  <formats count="1">
+    <format dxfId="6">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
   <chartFormats count="1">
     <chartFormat chart="2" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
@@ -6191,10 +11142,10 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0500-000000000000}" name="PivotTable4" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
-  <location ref="A3:C13" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0500-000000000000}" name="PivotTable4" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+  <location ref="A3:B13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="11">
-    <pivotField axis="axisRow" showAll="0" sortType="ascending">
+    <pivotField axis="axisRow" showAll="0">
       <items count="11">
         <item x="3"/>
         <item x="5"/>
@@ -6208,15 +11159,6 @@
         <item x="4"/>
         <item t="default"/>
       </items>
-      <autoSortScope>
-        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
-          <references count="1">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="1"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </autoSortScope>
     </pivotField>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -6225,15 +11167,15 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
       <items count="3">
         <item x="1"/>
         <item x="0"/>
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
   </pivotFields>
   <rowFields count="1">
     <field x="0"/>
@@ -6243,82 +11185,46 @@
       <x/>
     </i>
     <i>
-      <x v="9"/>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
     </i>
     <i>
       <x v="5"/>
     </i>
     <i>
-      <x v="3"/>
-    </i>
-    <i>
       <x v="6"/>
-    </i>
-    <i>
-      <x v="1"/>
     </i>
     <i>
       <x v="7"/>
     </i>
     <i>
-      <x v="4"/>
-    </i>
-    <i>
       <x v="8"/>
     </i>
     <i>
-      <x v="2"/>
+      <x v="9"/>
     </i>
   </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
+  <colItems count="1">
+    <i/>
   </colItems>
-  <dataFields count="2">
-    <dataField name="Sum of estimated_spending" fld="9" baseField="0" baseItem="0"/>
-    <dataField name="Sum of estimated_revenue" fld="8" baseField="0" baseItem="0"/>
+  <dataFields count="1">
+    <dataField name="Sum of total_revenue" fld="10" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="0">
+    <format dxfId="7">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
-  <chartFormats count="4">
-    <chartFormat chart="1" format="4" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="6" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="1" format="6" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="8" series="1">
+  <chartFormats count="1">
+    <chartFormat chart="1" format="20" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -6341,7 +11247,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{21170B92-0B96-4CE5-A907-DEDB2A39DC94}" name="PivotTable10" cacheId="21" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="7" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{21170B92-0B96-4CE5-A907-DEDB2A39DC94}" name="PivotTable10" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="7" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
   <location ref="A3:B6" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="11">
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
@@ -7093,7 +11999,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -7168,10 +12074,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A3:B13"/>
+  <dimension ref="A3:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7180,91 +12086,109 @@
     <col min="2" max="5" width="20.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>30</v>
+      </c>
+      <c r="D3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" t="s">
+        <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="10">
         <v>10.8</v>
       </c>
+      <c r="D4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" s="5">
+        <v>0.3</v>
+      </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="10">
         <v>10.7</v>
       </c>
+      <c r="D5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0.7</v>
+      </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="10">
         <v>10.7</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="10">
         <v>10.1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="10">
         <v>10.1</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="10">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="10">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="10">
         <v>9.9</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B12" s="3">
+        <v>32</v>
+      </c>
+      <c r="B12" s="10">
         <v>9.8000000000000007</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="10">
         <v>9.8000000000000007</v>
       </c>
     </row>
@@ -7604,7 +12528,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -7697,7 +12621,7 @@
         <v>29</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -7766,7 +12690,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B12" s="3">
         <v>4.3</v>
@@ -8116,7 +13040,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -8191,144 +13115,175 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A3:C13"/>
+  <dimension ref="A3:W27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="20.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" t="s">
-        <v>31</v>
+        <v>36</v>
+      </c>
+      <c r="D3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" t="s">
+        <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B4" s="4">
-        <v>130000</v>
-      </c>
-      <c r="C4" s="4">
-        <v>600000</v>
+        <v>490000</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="7">
+        <v>0.3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B5" s="4">
-        <v>130000</v>
-      </c>
-      <c r="C5" s="4">
-        <v>600000</v>
+        <v>490000</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" s="7">
+        <v>0.7</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="B6" s="4">
-        <v>130000</v>
-      </c>
-      <c r="C6" s="4">
-        <v>600000</v>
-      </c>
+        <v>538000</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="8"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B7" s="4">
-        <v>130000</v>
-      </c>
-      <c r="C7" s="4">
-        <v>600000</v>
+        <v>490000</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="B8" s="4">
-        <v>130000</v>
-      </c>
-      <c r="C8" s="4">
-        <v>600000</v>
+        <v>538000</v>
+      </c>
+      <c r="D8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" t="s">
+        <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B9" s="4">
-        <v>130000</v>
-      </c>
-      <c r="C9" s="4">
-        <v>600000</v>
+        <v>490000</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" s="5">
+        <v>0.3</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="4">
+        <v>490000</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="5">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="4">
-        <v>130000</v>
-      </c>
-      <c r="C10" s="4">
-        <v>600000</v>
-      </c>
+      <c r="B11" s="4">
+        <v>490000</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="5"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="4">
-        <v>142000</v>
-      </c>
-      <c r="C11" s="4">
-        <v>660000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B12" s="4">
-        <v>142000</v>
-      </c>
-      <c r="C12" s="4">
-        <v>660000</v>
+        <v>538000</v>
+      </c>
+      <c r="D12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B13" s="4">
-        <v>142000</v>
-      </c>
-      <c r="C13" s="4">
-        <v>660000</v>
+        <v>490000</v>
+      </c>
+      <c r="D13" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" s="5">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" s="5">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="27" spans="23:23" x14ac:dyDescent="0.25">
+      <c r="W27" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId2"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -8662,7 +13617,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -8739,8 +13694,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6739709E-75F3-4BB2-9629-44BB78588271}">
   <dimension ref="A3:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8754,13 +13709,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D3" t="s">
         <v>5</v>
       </c>
       <c r="E3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">

--- a/Top10.xlsx
+++ b/Top10.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jasmine\Documents\NSS\Projects\app-trader-fantastic-five\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE95D72A-CBB7-46FA-AC19-D73AF5A64D0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC7CA676-A026-4502-855A-75670CD57FCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29025" yWindow="510" windowWidth="26010" windowHeight="15090" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Top10_ls" sheetId="1" r:id="rId1"/>
@@ -210,7 +210,7 @@
   <numFmts count="3">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="173" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -704,7 +704,7 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="43" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="44">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -752,30 +752,12 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="2">
     <dxf>
       <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="173" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="165" formatCode="0.0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -804,7 +786,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Top10.xlsx]Top10_ls_chart!PivotTable1</c:name>
+    <c:name>[Top10_v1.xlsx]Top10_ls_chart!PivotTable1</c:name>
     <c:fmtId val="2"/>
   </c:pivotSource>
   <c:chart>
@@ -1387,7 +1369,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1">
+                <a:schemeClr val="accent6">
                   <a:lumMod val="60000"/>
                   <a:lumOff val="40000"/>
                 </a:schemeClr>
@@ -1410,8 +1392,8 @@
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.12908177493438319"/>
-                  <c:y val="9.2720180810731953E-2"/>
+                  <c:x val="-0.13602608267716534"/>
+                  <c:y val="4.6423884514435694E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="bestFit"/>
@@ -1432,8 +1414,8 @@
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.13689208770778652"/>
-                  <c:y val="-9.6175269757946921E-2"/>
+                  <c:x val="0.16467000218722661"/>
+                  <c:y val="-1.7471566054243305E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="bestFit"/>
@@ -1508,10 +1490,10 @@
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>11 years</c:v>
+                  <c:v>10 years</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10 years</c:v>
+                  <c:v>11 years</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1523,10 +1505,10 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0.3</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.7</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1647,7 +1629,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Top10.xlsx]Top10_gr_chart!PivotTable3</c:name>
+    <c:name>[Top10_v1.xlsx]Top10_gr_chart!PivotTable3</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
@@ -2104,7 +2086,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Top10.xlsx]Top10_s_chart!PivotTable4</c:name>
+    <c:name>[Top10_v1.xlsx]Top10_s_chart!PivotTable4</c:name>
     <c:fmtId val="1"/>
   </c:pivotSource>
   <c:chart>
@@ -9590,15 +9572,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:colOff>9524</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>185737</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:colOff>609599</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>71437</xdr:rowOff>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9663,12 +9645,11 @@
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="en-US" sz="1100">
+            <a:rPr lang="en-US" sz="1200" b="1">
               <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:lumMod val="50000"/>
-                </a:schemeClr>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
             </a:rPr>
             <a:t>Total Lifespan:</a:t>
           </a:r>
@@ -9676,14 +9657,13 @@
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="en-US" sz="1100">
+            <a:rPr lang="en-US" sz="1200" b="1">
               <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:lumMod val="50000"/>
-                </a:schemeClr>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
             </a:rPr>
-            <a:t>103 years</a:t>
+            <a:t>106 years</a:t>
           </a:r>
         </a:p>
       </cdr:txBody>
@@ -11007,10 +10987,10 @@
     <i/>
   </colItems>
   <dataFields count="1">
-    <dataField name="Sum of lifespan_years" fld="7" baseField="0" baseItem="0" numFmtId="173"/>
+    <dataField name="Sum of lifespan_years" fld="7" baseField="0" baseItem="0" numFmtId="165"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="6">
+    <format dxfId="1">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -11219,7 +11199,7 @@
     <dataField name="Sum of total_revenue" fld="10" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="7">
+    <format dxfId="0">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -12076,8 +12056,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A3:E13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12108,10 +12088,10 @@
         <v>10.8</v>
       </c>
       <c r="D4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E4" s="5">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -12122,10 +12102,10 @@
         <v>10.7</v>
       </c>
       <c r="D5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E5" s="5">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -13117,7 +13097,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A3:W27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
